--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.4097863983055925</v>
+        <v>-0.4159458605706507</v>
       </c>
       <c r="D2">
-        <v>0.6820149205220232</v>
+        <v>0.6814791206859918</v>
       </c>
       <c r="E2">
         <v>0.8439897345864963</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1979744620013912</v>
+        <v>-0.2488675716156888</v>
       </c>
       <c r="D3">
-        <v>0.8430890103762194</v>
+        <v>0.8057718321380909</v>
       </c>
       <c r="E3">
         <v>0.8439897345864963</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.097159732847669</v>
+        <v>1.97825999529021</v>
       </c>
       <c r="D4">
-        <v>0.03612866847689089</v>
+        <v>0.06055600410472128</v>
       </c>
       <c r="E4">
         <v>0.8439897345864963</v>
@@ -505,7 +505,7 @@
         <v>0.8169932377537791</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.1073355153173154</v>
+        <v>-0.1496930492389824</v>
       </c>
       <c r="D5">
-        <v>0.91453563383156</v>
+        <v>0.8823706442362671</v>
       </c>
       <c r="E5">
         <v>0.8439897345864963</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.182800811935368</v>
+        <v>0.1805095025562502</v>
       </c>
       <c r="D6">
-        <v>0.8549763810594726</v>
+        <v>0.8584050862060639</v>
       </c>
       <c r="E6">
         <v>0.850114900870089</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.353432208748596</v>
+        <v>2.292397272759771</v>
       </c>
       <c r="D7">
-        <v>0.01871574918432817</v>
+        <v>0.03181567353629799</v>
       </c>
       <c r="E7">
         <v>0.850114900870089</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.2901502941455013</v>
+        <v>0.2608706927948466</v>
       </c>
       <c r="D8">
-        <v>0.7717370902396024</v>
+        <v>0.7966186243036313</v>
       </c>
       <c r="E8">
         <v>0.850114900870089</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.911258041213525</v>
+        <v>2.008927248542865</v>
       </c>
       <c r="D9">
-        <v>0.05614153728994098</v>
+        <v>0.05697249625604184</v>
       </c>
       <c r="E9">
         <v>0.8470559220641002</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.09636603299082007</v>
+        <v>0.1331274138889595</v>
       </c>
       <c r="D10">
-        <v>0.9232413688380534</v>
+        <v>0.8953028332992468</v>
       </c>
       <c r="E10">
         <v>0.8470559220641002</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.003523180004062</v>
+        <v>-2.045563143145746</v>
       </c>
       <c r="D11">
-        <v>0.04528159377142416</v>
+        <v>0.05293965659209321</v>
       </c>
       <c r="E11">
         <v>0.8169932377537791</v>
@@ -687,7 +687,7 @@
         <v>0.8455472336870379</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
